--- a/Organisation/Projektplan.xlsx
+++ b/Organisation/Projektplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Meilenstein</t>
   </si>
@@ -36,13 +36,16 @@
     <t>Datenbank</t>
   </si>
   <si>
+    <t>Benni</t>
+  </si>
+  <si>
     <t>DB-Entwurf</t>
   </si>
   <si>
     <t>Alle</t>
   </si>
   <si>
-    <t>Schema erstellen</t>
+    <t>Schema implementieren</t>
   </si>
   <si>
     <t>Testdaten bereitstellen</t>
@@ -60,6 +63,9 @@
     <t>Registrierung</t>
   </si>
   <si>
+    <t xml:space="preserve">Klabunde </t>
+  </si>
+  <si>
     <t>Seiten Allgemein</t>
   </si>
   <si>
@@ -69,16 +75,25 @@
     <t>Navigation Titelbild, Header, Footer, Sidebar</t>
   </si>
   <si>
+    <t>Seitenlayout implementieren</t>
+  </si>
+  <si>
     <t>Impressum</t>
   </si>
   <si>
     <t>Spielregeln</t>
   </si>
   <si>
+    <t>Alex</t>
+  </si>
+  <si>
     <t>Statistik</t>
   </si>
   <si>
-    <t>Spiel</t>
+    <t>Spiel Oberfläche</t>
+  </si>
+  <si>
+    <t>Pöppelmann</t>
   </si>
   <si>
     <t>Mock-UP</t>
@@ -87,6 +102,18 @@
     <t>Oberfläche implementieren</t>
   </si>
   <si>
+    <t>Spiel DB Model</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Daten in DB speichern/laden</t>
+  </si>
+  <si>
+    <t>Spiel Logik</t>
+  </si>
+  <si>
     <t>KI Zufallsauswahl</t>
   </si>
   <si>
@@ -123,6 +150,12 @@
     <t>Dokumentation</t>
   </si>
   <si>
+    <t>Datenmodell</t>
+  </si>
+  <si>
+    <t>Architektur</t>
+  </si>
+  <si>
     <t>Präsentationsvorbereitung</t>
   </si>
   <si>
@@ -132,18 +165,6 @@
     <t>Feste JourFixes festlegen</t>
   </si>
   <si>
-    <t>Verantwortliche festlegen</t>
-  </si>
-  <si>
-    <t>Repository anlegen</t>
-  </si>
-  <si>
-    <t>DB-Schema entwerfen</t>
-  </si>
-  <si>
-    <t>Mock-Up entwerfen</t>
-  </si>
-  <si>
     <t>Login/Logout/Registrieren</t>
   </si>
   <si>
@@ -160,9 +181,6 @@
   </si>
   <si>
     <t>Optional</t>
-  </si>
-  <si>
-    <t>Architektur</t>
   </si>
   <si>
     <t>Installation</t>
@@ -191,7 +209,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="d.m.yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -214,8 +232,28 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <b val="1"/>
+      <strike val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <strike val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <strike val="1"/>
       <sz val="10"/>
       <color indexed="11"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <strike val="1"/>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -268,7 +306,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -296,6 +334,24 @@
     <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -305,16 +361,16 @@
     <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -351,6 +407,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ff010000"/>
       <rgbColor rgb="ffff0000"/>
     </indexedColors>
   </colors>
@@ -1583,7 +1640,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G30"/>
+  <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
@@ -1630,81 +1687,87 @@
     </row>
     <row r="4" ht="20.8" customHeight="1">
       <c r="B4" s="9"/>
-      <c r="C4" t="s" s="6">
+      <c r="C4" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10">
-        <v>40654</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11">
+        <v>40648</v>
+      </c>
+      <c r="G4" t="s" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="20.8" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="11"/>
-      <c r="D5" t="s" s="12">
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" t="s" s="13">
+        <v>7</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11">
+        <v>40648</v>
+      </c>
+      <c r="G5" t="s" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="20.8" customHeight="1">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" t="s" s="14">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11">
+        <v>40648</v>
+      </c>
+      <c r="G6" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="13">
+    </row>
+    <row r="7" ht="20.8" customHeight="1">
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11">
         <v>40648</v>
       </c>
-      <c r="G5" t="s" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="20.8" customHeight="1">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" t="s" s="14">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="13">
-        <v>40654</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" ht="20.8" customHeight="1">
-      <c r="B7" s="5"/>
-      <c r="C7" s="11"/>
-      <c r="D7" t="s" s="14">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="13">
-        <v>40654</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="G7" t="s" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" ht="20.8" customHeight="1">
-      <c r="B8" s="9"/>
+      <c r="B8" s="15"/>
       <c r="C8" t="s" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="10">
+      <c r="F8" s="16">
         <v>40671</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" ht="20.8" customHeight="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
-      <c r="D9" t="s" s="14">
-        <v>11</v>
+      <c r="C9" s="17"/>
+      <c r="D9" t="s" s="18">
+        <v>12</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" ht="20.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" t="s" s="14">
-        <v>12</v>
+      <c r="D10" t="s" s="18">
+        <v>13</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1713,56 +1776,58 @@
     <row r="11" ht="20.8" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" t="s" s="14">
-        <v>13</v>
+      <c r="D11" t="s" s="18">
+        <v>14</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
+      <c r="G11" t="s" s="18">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" ht="20.8" customHeight="1">
-      <c r="B12" s="9"/>
+      <c r="B12" s="15"/>
       <c r="C12" t="s" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="10">
+      <c r="F12" s="16">
         <v>40665</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" ht="20.8" customHeight="1">
-      <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" t="s" s="12">
-        <v>15</v>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" t="s" s="20">
+        <v>17</v>
       </c>
       <c r="E13" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="F13" s="13">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11">
         <v>40648</v>
       </c>
       <c r="G13" t="s" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="20.8" customHeight="1">
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" t="s" s="14">
-        <v>17</v>
+      <c r="C14" s="17"/>
+      <c r="D14" t="s" s="18">
+        <v>19</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="7"/>
     </row>
     <row r="15" ht="20.8" customHeight="1">
       <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" t="s" s="14">
-        <v>18</v>
+      <c r="C15" s="6"/>
+      <c r="D15" t="s" s="18">
+        <v>20</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
@@ -1770,174 +1835,244 @@
     </row>
     <row r="16" ht="20.8" customHeight="1">
       <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" t="s" s="14">
-        <v>19</v>
+      <c r="C16" s="17"/>
+      <c r="D16" t="s" s="18">
+        <v>21</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
+      <c r="G16" t="s" s="18">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" ht="20.8" customHeight="1">
-      <c r="B17" s="9"/>
-      <c r="C17" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="10">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" t="s" s="18">
+        <v>23</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" ht="20.8" customHeight="1">
+      <c r="B18" s="15"/>
+      <c r="C18" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="16">
         <v>40675</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" ht="20.8" customHeight="1">
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-      <c r="D18" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="13">
+      <c r="G18" t="s" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="20.8" customHeight="1">
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" t="s" s="20">
+        <v>26</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="11">
         <v>40648</v>
       </c>
-      <c r="G18" t="s" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" ht="20.8" customHeight="1">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" t="s" s="14">
-        <v>22</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
+      <c r="G19" t="s" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" ht="20.8" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
-      <c r="D20" t="s" s="14">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s" s="14">
-        <v>24</v>
-      </c>
+      <c r="D20" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="E20" s="7"/>
       <c r="F20" s="8"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" ht="20.8" customHeight="1">
-      <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
-      <c r="D21" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7"/>
+      <c r="B21" s="15"/>
+      <c r="C21" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="21"/>
+      <c r="G21" t="s" s="6">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" ht="20.8" customHeight="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" t="s" s="14">
-        <v>26</v>
+      <c r="C22" s="17"/>
+      <c r="D22" t="s" s="18">
+        <v>30</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="19"/>
+      <c r="G22" t="s" s="18">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" ht="20.8" customHeight="1">
       <c r="B23" s="5"/>
-      <c r="C23" s="11"/>
-      <c r="D23" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="F23" s="15"/>
+      <c r="C23" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" ht="20.8" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10">
-        <v>40679</v>
-      </c>
-      <c r="G24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" t="s" s="18">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s" s="18">
+        <v>33</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" ht="20.8" customHeight="1">
-      <c r="B25" s="16"/>
-      <c r="C25" s="7"/>
-      <c r="D25" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="F25" s="15"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="17"/>
+      <c r="D25" t="s" s="18">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" ht="20.8" customHeight="1">
-      <c r="B26" s="16"/>
-      <c r="C26" s="7"/>
-      <c r="D26" t="s" s="14">
-        <v>32</v>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" t="s" s="18">
+        <v>35</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" ht="20.8" customHeight="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="7"/>
-      <c r="D27" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="17"/>
+      <c r="D27" t="s" s="18">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s" s="18">
+        <v>37</v>
+      </c>
+      <c r="F27" s="19"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" ht="20.8" customHeight="1">
-      <c r="B28" s="9"/>
+      <c r="B28" s="15"/>
       <c r="C28" t="s" s="6">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="10">
+      <c r="F28" s="16">
+        <v>40679</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" ht="20.8" customHeight="1">
+      <c r="B29" s="22"/>
+      <c r="C29" s="7"/>
+      <c r="D29" t="s" s="18">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s" s="18">
+        <v>40</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" ht="20.8" customHeight="1">
+      <c r="B30" s="22"/>
+      <c r="C30" s="7"/>
+      <c r="D30" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" ht="20.8" customHeight="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="7"/>
+      <c r="D31" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" ht="20.8" customHeight="1">
+      <c r="B32" s="15"/>
+      <c r="C32" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="16">
         <v>40681</v>
       </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" ht="20.8" customHeight="1">
-      <c r="B29" s="9"/>
-      <c r="C29" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="10">
+      <c r="G32" t="s" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="20.8" customHeight="1">
+      <c r="B33" s="22"/>
+      <c r="C33" s="7"/>
+      <c r="D33" t="s" s="18">
+        <v>44</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" ht="20.8" customHeight="1">
+      <c r="B34" s="22"/>
+      <c r="C34" s="7"/>
+      <c r="D34" t="s" s="18">
+        <v>45</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" ht="20.8" customHeight="1">
+      <c r="B35" s="15"/>
+      <c r="C35" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="16">
         <v>40681</v>
       </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" ht="20.8" customHeight="1">
-      <c r="B30" s="9"/>
-      <c r="C30" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="10">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" ht="20.8" customHeight="1">
+      <c r="B36" s="15"/>
+      <c r="C36" t="s" s="6">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="16">
         <v>40682</v>
       </c>
-      <c r="G30" t="s" s="6">
-        <v>7</v>
+      <c r="G36" t="s" s="6">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1962,13 +2097,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="0.25" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.6016" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="17" customWidth="1"/>
-    <col min="7" max="256" width="12.25" style="17" customWidth="1"/>
+    <col min="1" max="1" width="0.25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="19.6016" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="23" customWidth="1"/>
+    <col min="7" max="256" width="12.25" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="2" customHeight="1"/>
@@ -1981,8 +2116,8 @@
     </row>
     <row r="3" ht="20.55" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="14">
-        <v>37</v>
+      <c r="C3" t="s" s="18">
+        <v>48</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1990,36 +2125,28 @@
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="14">
-        <v>38</v>
-      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" t="s" s="14">
-        <v>39</v>
-      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="14">
-        <v>40</v>
-      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="B7" s="5"/>
-      <c r="C7" t="s" s="14">
-        <v>41</v>
-      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -2074,13 +2201,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="0.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="18" customWidth="1"/>
-    <col min="7" max="256" width="12.25" style="18" customWidth="1"/>
+    <col min="1" max="1" width="0.25" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="24" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="24" customWidth="1"/>
+    <col min="7" max="256" width="12.25" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="2" customHeight="1"/>
@@ -2093,19 +2220,19 @@
     </row>
     <row r="3" ht="32.55" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="14">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="14">
-        <v>42</v>
+      <c r="C3" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="18">
+        <v>49</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="14">
-        <v>43</v>
+      <c r="C4" t="s" s="18">
+        <v>50</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2113,8 +2240,8 @@
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" t="s" s="14">
-        <v>19</v>
+      <c r="C5" t="s" s="18">
+        <v>23</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2122,8 +2249,8 @@
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="14">
-        <v>17</v>
+      <c r="C6" t="s" s="18">
+        <v>20</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2131,22 +2258,22 @@
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="B7" s="5"/>
-      <c r="C7" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="14">
-        <v>44</v>
+      <c r="C7" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="18">
+        <v>51</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="B8" s="5"/>
-      <c r="C8" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s" s="14">
-        <v>45</v>
+      <c r="C8" t="s" s="18">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="18">
+        <v>52</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -2160,11 +2287,11 @@
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s" s="14">
-        <v>47</v>
+      <c r="C10" t="s" s="18">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s" s="18">
+        <v>54</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2198,13 +2325,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="0.25" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="19" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="19" customWidth="1"/>
-    <col min="7" max="256" width="12.25" style="19" customWidth="1"/>
+    <col min="1" max="1" width="0.25" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="25" customWidth="1"/>
+    <col min="7" max="256" width="12.25" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="2" customHeight="1"/>
@@ -2217,8 +2344,8 @@
     </row>
     <row r="3" ht="20.55" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="14">
-        <v>48</v>
+      <c r="C3" t="s" s="18">
+        <v>45</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2226,8 +2353,8 @@
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="14">
-        <v>49</v>
+      <c r="C4" t="s" s="18">
+        <v>55</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2242,8 +2369,8 @@
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="14">
-        <v>50</v>
+      <c r="C6" t="s" s="18">
+        <v>56</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2306,13 +2433,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="0.25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="20" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="20" customWidth="1"/>
-    <col min="7" max="256" width="12.25" style="20" customWidth="1"/>
+    <col min="1" max="1" width="0.25" style="26" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="26" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="26" customWidth="1"/>
+    <col min="7" max="256" width="12.25" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="2" customHeight="1"/>
@@ -2332,8 +2459,8 @@
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="14">
-        <v>51</v>
+      <c r="C4" t="s" s="18">
+        <v>57</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2341,8 +2468,8 @@
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" t="s" s="14">
-        <v>52</v>
+      <c r="C5" t="s" s="18">
+        <v>58</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2350,8 +2477,8 @@
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="14">
-        <v>53</v>
+      <c r="C6" t="s" s="18">
+        <v>59</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2359,8 +2486,8 @@
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="B7" s="5"/>
-      <c r="C7" t="s" s="14">
-        <v>54</v>
+      <c r="C7" t="s" s="18">
+        <v>60</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>

--- a/Organisation/Projektplan.xlsx
+++ b/Organisation/Projektplan.xlsx
@@ -7,16 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId4"/>
-    <sheet name="1. Treffen" sheetId="2" r:id="rId5"/>
-    <sheet name="Seiten" sheetId="3" r:id="rId6"/>
-    <sheet name="Dokumentation" sheetId="4" r:id="rId7"/>
-    <sheet name="Apskete beachten" sheetId="5" r:id="rId8"/>
+    <sheet name="Seiten" sheetId="2" r:id="rId5"/>
+    <sheet name="Dokumentation" sheetId="3" r:id="rId6"/>
+    <sheet name="Apskete beachten" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>Meilenstein</t>
   </si>
@@ -51,51 +50,75 @@
     <t>Testdaten bereitstellen</t>
   </si>
   <si>
+    <t>SQL-Statements für Statistik</t>
+  </si>
+  <si>
+    <t>Durchstich Schichtenmodell</t>
+  </si>
+  <si>
+    <t>1. Durchstich</t>
+  </si>
+  <si>
+    <t>Testdaten in GUI laden</t>
+  </si>
+  <si>
     <t>Anmeldeseite/Benutzerverwaltung</t>
   </si>
   <si>
     <t>Login/Logout Mechanismus</t>
   </si>
   <si>
+    <t>Session Aufbauen und beenden</t>
+  </si>
+  <si>
+    <t>Login-Seite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klabunde </t>
+  </si>
+  <si>
+    <t>Registrierung</t>
+  </si>
+  <si>
+    <t>Seiten Allgemein</t>
+  </si>
+  <si>
+    <t>Seitenlayout Entwurf</t>
+  </si>
+  <si>
+    <t>Navigation Titelbild, Header, Footer, Sidebar</t>
+  </si>
+  <si>
+    <t>Seitenlayout implementieren</t>
+  </si>
+  <si>
+    <t>Seitenlayout verschönern</t>
+  </si>
+  <si>
+    <t>Pöppelmann</t>
+  </si>
+  <si>
+    <t>Impressum</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Spielregeln</t>
+  </si>
+  <si>
+    <t>Statistik</t>
+  </si>
+  <si>
     <t>Startseite</t>
   </si>
   <si>
-    <t>Registrierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klabunde </t>
-  </si>
-  <si>
-    <t>Seiten Allgemein</t>
-  </si>
-  <si>
-    <t>Seitenlayout Entwurf</t>
-  </si>
-  <si>
-    <t>Navigation Titelbild, Header, Footer, Sidebar</t>
-  </si>
-  <si>
-    <t>Seitenlayout implementieren</t>
-  </si>
-  <si>
-    <t>Impressum</t>
-  </si>
-  <si>
-    <t>Spielregeln</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Statistik</t>
+    <t>Werbung Spalte</t>
   </si>
   <si>
     <t>Spiel Oberfläche</t>
   </si>
   <si>
-    <t>Pöppelmann</t>
-  </si>
-  <si>
     <t>Mock-UP</t>
   </si>
   <si>
@@ -150,7 +173,7 @@
     <t>Dokumentation</t>
   </si>
   <si>
-    <t>Datenmodell</t>
+    <t>Datenmodell beschreiben</t>
   </si>
   <si>
     <t>Architektur</t>
@@ -160,9 +183,6 @@
   </si>
   <si>
     <t>Präsentation</t>
-  </si>
-  <si>
-    <t>Feste JourFixes festlegen</t>
   </si>
   <si>
     <t>Login/Logout/Registrieren</t>
@@ -209,7 +229,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="d.m.yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -248,12 +268,6 @@
       <strike val="1"/>
       <sz val="10"/>
       <color indexed="11"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <strike val="1"/>
-      <sz val="10"/>
-      <color indexed="12"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -306,7 +320,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -352,6 +366,18 @@
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -359,24 +385,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -408,7 +419,6 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff010000"/>
-      <rgbColor rgb="ffff0000"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1640,7 +1650,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
@@ -1742,217 +1752,241 @@
       </c>
     </row>
     <row r="8" ht="20.8" customHeight="1">
-      <c r="B8" s="15"/>
-      <c r="C8" t="s" s="6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="15"/>
+      <c r="D8" t="s" s="16">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="16">
-        <v>40671</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="17"/>
+      <c r="G8" t="s" s="16">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" ht="20.8" customHeight="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="17"/>
-      <c r="D9" t="s" s="18">
+      <c r="C9" t="s" s="6">
         <v>12</v>
       </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="17"/>
+      <c r="G9" t="s" s="16">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" ht="20.8" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" t="s" s="18">
+      <c r="C10" s="15"/>
+      <c r="D10" t="s" s="16">
         <v>13</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
+      <c r="E10" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="F10" s="18">
+        <v>40662</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" ht="20.8" customHeight="1">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" t="s" s="18">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" t="s" s="18">
+      <c r="B11" s="19"/>
+      <c r="C11" t="s" s="6">
         <v>15</v>
       </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="20">
+        <v>40671</v>
+      </c>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="20.8" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" t="s" s="6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="15"/>
+      <c r="D12" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="16">
+      <c r="E12" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" ht="20.8" customHeight="1">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" t="s" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="20.8" customHeight="1">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" t="s" s="14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11">
+        <v>40653</v>
+      </c>
+      <c r="G14" t="s" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="20.8" customHeight="1">
+      <c r="B15" s="19"/>
+      <c r="C15" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="20">
         <v>40665</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" ht="20.8" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" t="s" s="20">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="G15" t="s" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="20.8" customHeight="1">
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="F16" s="11">
         <v>40648</v>
       </c>
-      <c r="G13" t="s" s="14">
+      <c r="G16" t="s" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="20.8" customHeight="1">
-      <c r="B14" s="5"/>
-      <c r="C14" s="17"/>
-      <c r="D14" t="s" s="18">
-        <v>19</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" ht="20.8" customHeight="1">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" t="s" s="18">
-        <v>20</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" ht="20.8" customHeight="1">
-      <c r="B16" s="5"/>
-      <c r="C16" s="17"/>
-      <c r="D16" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" t="s" s="18">
-        <v>22</v>
-      </c>
-    </row>
     <row r="17" ht="20.8" customHeight="1">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" t="s" s="18">
-        <v>23</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" t="s" s="14">
+        <v>24</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11">
+        <v>40653</v>
+      </c>
+      <c r="G17" t="s" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" ht="20.8" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="16">
-        <v>40675</v>
-      </c>
-      <c r="G18" t="s" s="6">
+      <c r="B18" s="5"/>
+      <c r="C18" s="15"/>
+      <c r="D18" t="s" s="16">
         <v>25</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="17"/>
+      <c r="G18" t="s" s="16">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="20.8" customHeight="1">
       <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" t="s" s="20">
-        <v>26</v>
+      <c r="C19" s="10"/>
+      <c r="D19" t="s" s="14">
+        <v>27</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="11">
-        <v>40648</v>
+        <v>40653</v>
       </c>
       <c r="G19" t="s" s="14">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="20.8" customHeight="1">
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="11">
+        <v>40653</v>
+      </c>
+      <c r="G20" t="s" s="14">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" ht="20.8" customHeight="1">
-      <c r="B21" s="15"/>
-      <c r="C21" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="21"/>
-      <c r="G21" t="s" s="6">
-        <v>29</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" t="s" s="16">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" ht="20.8" customHeight="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="17"/>
-      <c r="D22" t="s" s="18">
-        <v>30</v>
+      <c r="C22" s="15"/>
+      <c r="D22" t="s" s="16">
+        <v>31</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="19"/>
-      <c r="G22" t="s" s="18">
-        <v>29</v>
+      <c r="F22" s="17"/>
+      <c r="G22" t="s" s="16">
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="20.8" customHeight="1">
       <c r="B23" s="5"/>
-      <c r="C23" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="C23" s="15"/>
+      <c r="D23" t="s" s="16">
+        <v>32</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" ht="20.8" customHeight="1">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" t="s" s="18">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s" s="18">
+      <c r="B24" s="19"/>
+      <c r="C24" t="s" s="6">
         <v>33</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="20">
+        <v>40675</v>
+      </c>
+      <c r="G24" t="s" s="6">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" ht="20.8" customHeight="1">
-      <c r="B25" s="5"/>
-      <c r="C25" s="17"/>
-      <c r="D25" t="s" s="18">
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" t="s" s="14">
         <v>34</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="11">
+        <v>40648</v>
+      </c>
+      <c r="G25" t="s" s="14">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" ht="20.8" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
-      <c r="D26" t="s" s="18">
+      <c r="D26" t="s" s="16">
         <v>35</v>
       </c>
       <c r="E26" s="7"/>
@@ -1960,118 +1994,186 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" ht="20.8" customHeight="1">
-      <c r="B27" s="5"/>
-      <c r="C27" s="17"/>
-      <c r="D27" t="s" s="18">
+      <c r="B27" s="19"/>
+      <c r="C27" t="s" s="6">
         <v>36</v>
       </c>
-      <c r="E27" t="s" s="18">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="21"/>
+      <c r="G27" t="s" s="6">
         <v>37</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="7"/>
     </row>
     <row r="28" ht="20.8" customHeight="1">
-      <c r="B28" s="15"/>
-      <c r="C28" t="s" s="6">
+      <c r="B28" s="5"/>
+      <c r="C28" s="15"/>
+      <c r="D28" t="s" s="16">
         <v>38</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="16">
+      <c r="E28" s="7"/>
+      <c r="F28" s="17"/>
+      <c r="G28" t="s" s="16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" ht="20.8" customHeight="1">
+      <c r="B29" s="5"/>
+      <c r="C29" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" ht="20.8" customHeight="1">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="16">
+        <v>41</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" ht="20.8" customHeight="1">
+      <c r="B31" s="5"/>
+      <c r="C31" s="15"/>
+      <c r="D31" t="s" s="16">
+        <v>42</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" ht="20.8" customHeight="1">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" t="s" s="16">
+        <v>43</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" ht="20.8" customHeight="1">
+      <c r="B33" s="5"/>
+      <c r="C33" s="15"/>
+      <c r="D33" t="s" s="16">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s" s="16">
+        <v>45</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" ht="20.8" customHeight="1">
+      <c r="B34" s="19"/>
+      <c r="C34" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="20">
         <v>40679</v>
       </c>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" ht="20.8" customHeight="1">
-      <c r="B29" s="22"/>
-      <c r="C29" s="7"/>
-      <c r="D29" t="s" s="18">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s" s="18">
-        <v>40</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" ht="20.8" customHeight="1">
-      <c r="B30" s="22"/>
-      <c r="C30" s="7"/>
-      <c r="D30" t="s" s="18">
-        <v>41</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" ht="20.8" customHeight="1">
-      <c r="B31" s="22"/>
-      <c r="C31" s="7"/>
-      <c r="D31" t="s" s="18">
-        <v>42</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" ht="20.8" customHeight="1">
-      <c r="B32" s="15"/>
-      <c r="C32" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="16">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" ht="20.8" customHeight="1">
+      <c r="B35" s="22"/>
+      <c r="C35" s="7"/>
+      <c r="D35" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s" s="16">
+        <v>48</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" ht="20.8" customHeight="1">
+      <c r="B36" s="22"/>
+      <c r="C36" s="7"/>
+      <c r="D36" t="s" s="16">
+        <v>49</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" ht="20.8" customHeight="1">
+      <c r="B37" s="22"/>
+      <c r="C37" s="7"/>
+      <c r="D37" t="s" s="16">
+        <v>50</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" ht="20.8" customHeight="1">
+      <c r="B38" s="19"/>
+      <c r="C38" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="20">
         <v>40681</v>
       </c>
-      <c r="G32" t="s" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" ht="20.8" customHeight="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="7"/>
-      <c r="D33" t="s" s="18">
-        <v>44</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" ht="20.8" customHeight="1">
-      <c r="B34" s="22"/>
-      <c r="C34" s="7"/>
-      <c r="D34" t="s" s="18">
-        <v>45</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" ht="20.8" customHeight="1">
-      <c r="B35" s="15"/>
-      <c r="C35" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="16">
+      <c r="G38" t="s" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" ht="20.8" customHeight="1">
+      <c r="B39" s="22"/>
+      <c r="C39" s="7"/>
+      <c r="D39" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="17"/>
+      <c r="G39" t="s" s="16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" ht="20.8" customHeight="1">
+      <c r="B40" s="22"/>
+      <c r="C40" s="7"/>
+      <c r="D40" t="s" s="16">
+        <v>53</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" ht="20.8" customHeight="1">
+      <c r="B41" s="19"/>
+      <c r="C41" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="20">
         <v>40681</v>
       </c>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" ht="20.8" customHeight="1">
-      <c r="B36" s="15"/>
-      <c r="C36" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="16">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" ht="20.8" customHeight="1">
+      <c r="B42" s="19"/>
+      <c r="C42" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="20">
         <v>40682</v>
       </c>
-      <c r="G36" t="s" s="6">
+      <c r="G42" t="s" s="6">
         <v>8</v>
       </c>
     </row>
@@ -2099,7 +2201,7 @@
   <cols>
     <col min="1" max="1" width="0.25" style="23" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.6016" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="23" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="23" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="23" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="23" customWidth="1"/>
@@ -2114,47 +2216,63 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
+    <row r="3" ht="32.55" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="18">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="C3" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>56</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
+      <c r="C4" t="s" s="16">
+        <v>57</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
+      <c r="C5" t="s" s="16">
+        <v>30</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
+      <c r="C6" t="s" s="16">
+        <v>27</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s" s="16">
+        <v>58</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>59</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
@@ -2167,8 +2285,12 @@
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>61</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
@@ -2218,21 +2340,19 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="32.55" customHeight="1">
+    <row r="3" ht="20.55" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="18">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="18">
-        <v>49</v>
-      </c>
+      <c r="C3" t="s" s="16">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="18">
-        <v>50</v>
+      <c r="C4" t="s" s="16">
+        <v>62</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2240,17 +2360,15 @@
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" t="s" s="18">
-        <v>23</v>
-      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="18">
-        <v>20</v>
+      <c r="C6" t="s" s="16">
+        <v>63</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2258,23 +2376,15 @@
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="B7" s="5"/>
-      <c r="C7" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="18">
-        <v>51</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
       <c r="B8" s="5"/>
-      <c r="C8" t="s" s="18">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="18">
-        <v>52</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
@@ -2287,12 +2397,8 @@
     </row>
     <row r="10" ht="20.35" customHeight="1">
       <c r="B10" s="5"/>
-      <c r="C10" t="s" s="18">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s" s="18">
-        <v>54</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
@@ -2344,114 +2450,6 @@
     </row>
     <row r="3" ht="20.55" customHeight="1">
       <c r="B3" s="5"/>
-      <c r="C3" t="s" s="18">
-        <v>45</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="B4" s="5"/>
-      <c r="C4" t="s" s="18">
-        <v>55</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="B6" s="5"/>
-      <c r="C6" t="s" s="18">
-        <v>56</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B2:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="0.25" style="26" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="26" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="26" customWidth="1"/>
-    <col min="7" max="256" width="12.25" style="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="B3" s="5"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2459,8 +2457,8 @@
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="B4" s="5"/>
-      <c r="C4" t="s" s="18">
-        <v>57</v>
+      <c r="C4" t="s" s="16">
+        <v>64</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2468,8 +2466,8 @@
     </row>
     <row r="5" ht="20.35" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" t="s" s="18">
-        <v>58</v>
+      <c r="C5" t="s" s="16">
+        <v>65</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2477,8 +2475,8 @@
     </row>
     <row r="6" ht="20.35" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" t="s" s="18">
-        <v>59</v>
+      <c r="C6" t="s" s="16">
+        <v>66</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2486,8 +2484,8 @@
     </row>
     <row r="7" ht="20.35" customHeight="1">
       <c r="B7" s="5"/>
-      <c r="C7" t="s" s="18">
-        <v>60</v>
+      <c r="C7" t="s" s="16">
+        <v>67</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
